--- a/excels/英雄列表.xlsx
+++ b/excels/英雄列表.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\x-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Dota\THDAmethyst\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FD333-7DDC-40BB-95F8-3722FD9EC8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24010F-3F82-4B45-AD93-E2D25037BB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -802,17 +791,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29C7AE1-1213-469D-856F-83D4B90AB9D9}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -823,7 +812,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
@@ -831,191 +820,191 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1023,820 +1012,820 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excels/英雄列表.xlsx
+++ b/excels/英雄列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Dota\THDAmethyst\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24010F-3F82-4B45-AD93-E2D25037BB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881A605-07C0-444E-AC05-7DD29CA12F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -792,7 +792,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1017,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">

--- a/excels/英雄列表.xlsx
+++ b/excels/英雄列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Dota\THDAmethyst\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881A605-07C0-444E-AC05-7DD29CA12F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A9F33-6240-489F-93B0-300D61C8809D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="2655" windowWidth="21600" windowHeight="11385" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -58,379 +58,394 @@
     <t>npc_dota_hero_alchemist</t>
   </si>
   <si>
+    <t>npc_dota_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_tusk</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_furion</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_bristleback</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_dark_willow</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_treant</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_brewmaster</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_centaur</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_elder_titan</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_nevermore</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_razor</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_shredder</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_tidehunter</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_naga_siren</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_medusa</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_beastmaster</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_weaver</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_abyssal_underlord</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_phoenix</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_enigma</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_meepo</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_sven</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_zuus</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_morphling</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_slark</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_ursa</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_nyx_assassin</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_magnataur</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_warlock</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_doom_bringer</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_terrorblade</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_kunkka</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_slardar</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_enchantress</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_broodmother</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_windrunner</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_pudge</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_ember_spirit</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_luna</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_queenofpain</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_antimage</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_mirana</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_lion</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_tiny</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_witch_doctor</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_vengefulspirit</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_bane</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_skeleton_king</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_drow_ranger</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_axe</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_bloodseeker</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_phantom_lancer</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_puck</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_lich</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_shadow_shaman</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_riki</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_sniper</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_necrolyte</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_venomancer</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_faceless_void</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_pugna</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_viper</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_dazzle</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_leshrac</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_life_stealer</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_dark_seer</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_omniknight</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_huskar</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_night_stalker</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_jakiro</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_chen</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_spectre</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_spirit_breaker</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_invoker</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_silencer</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_obsidian_destroyer</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_shadow_demon</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_undying</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_rubick</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_disruptor</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_keeper_of_the_light</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_visage</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_wisp</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_troll_warlord</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_skywrath_mage</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_abaddon</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_legion_commander</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_oracle</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_techies</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_arc_warden</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_monkey_king</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_grimstroke</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_mars</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_snapfire</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_lycan</t>
+  </si>
+  <si>
+    <t>是否激活</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄名字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroNames</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_ancient_apparition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_hoodwink</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_dawnbreaker</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_marci</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_primal_beast</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_muerta</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_ringmaster</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_kez</t>
+  </si>
+  <si>
     <t>npc_dota_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_tusk</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_furion</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_bristleback</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_dark_willow</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_treant</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_brewmaster</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_centaur</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_elder_titan</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_nevermore</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_razor</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_shredder</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_tidehunter</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_naga_siren</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_medusa</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_beastmaster</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_weaver</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_abyssal_underlord</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_phoenix</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_enigma</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_meepo</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_sven</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_zuus</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_morphling</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_slark</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_ursa</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_nyx_assassin</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_magnataur</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_warlock</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_doom_bringer</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_terrorblade</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_kunkka</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_slardar</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_enchantress</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_broodmother</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_windrunner</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_pudge</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_ember_spirit</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_luna</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_queenofpain</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_antimage</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_mirana</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_lion</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_tiny</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_witch_doctor</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_vengefulspirit</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_bane</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_skeleton_king</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_drow_ranger</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_axe</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_bloodseeker</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_phantom_lancer</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_puck</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_lich</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_shadow_shaman</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_riki</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_sniper</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_necrolyte</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_venomancer</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_faceless_void</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_pugna</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_viper</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_dazzle</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_leshrac</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_life_stealer</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_dark_seer</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_omniknight</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_huskar</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_night_stalker</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_jakiro</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_chen</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_spectre</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_spirit_breaker</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_invoker</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_silencer</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_obsidian_destroyer</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_shadow_demon</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_undying</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_rubick</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_disruptor</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_keeper_of_the_light</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_visage</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_wisp</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_troll_warlord</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_skywrath_mage</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_abaddon</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_legion_commander</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_oracle</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_techies</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_arc_warden</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_monkey_king</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_grimstroke</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_mars</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_snapfire</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_lycan</t>
-  </si>
-  <si>
-    <t>是否激活</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroNames</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_dota_hero_hoodwink</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_dawnbreaker</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_marci</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_primal_beast</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_muerta</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_ringmaster</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_kez</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,13 +511,15 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -791,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29C7AE1-1213-469D-856F-83D4B90AB9D9}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,26 +820,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -830,7 +847,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -838,23 +855,23 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -862,7 +879,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -870,47 +887,47 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="A10" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -918,10 +935,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,12 +946,12 @@
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -942,7 +959,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -950,7 +967,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -958,50 +975,50 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,7 +1031,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1022,15 +1039,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -1038,15 +1055,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -1054,7 +1071,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -1062,7 +1079,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -1070,7 +1087,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -1078,7 +1095,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -1086,7 +1103,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -1102,7 +1119,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1110,7 +1127,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -1126,7 +1143,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -1134,7 +1151,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -1142,7 +1159,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -1150,7 +1167,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -1158,7 +1175,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -1166,7 +1183,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -1174,7 +1191,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -1190,7 +1207,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -1198,7 +1215,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -1206,7 +1223,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -1214,7 +1231,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1222,7 +1239,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1230,7 +1247,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -1238,7 +1255,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -1246,7 +1263,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1254,7 +1271,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -1262,7 +1279,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1270,7 +1287,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -1278,7 +1295,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -1286,7 +1303,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -1302,7 +1319,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -1318,7 +1335,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -1326,7 +1343,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -1342,7 +1359,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -1350,7 +1367,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1358,7 +1375,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1374,7 +1391,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -1382,7 +1399,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -1390,7 +1407,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -1398,7 +1415,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -1406,7 +1423,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -1414,7 +1431,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -1422,7 +1439,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -1438,7 +1455,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -1446,7 +1463,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -1454,7 +1471,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -1462,7 +1479,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -1470,7 +1487,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -1478,7 +1495,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -1486,7 +1503,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -1494,7 +1511,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -1502,7 +1519,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -1510,7 +1527,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -1518,7 +1535,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -1526,7 +1543,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -1534,7 +1551,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -1542,7 +1559,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -1550,7 +1567,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -1558,7 +1575,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -1566,7 +1583,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -1574,7 +1591,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -1582,7 +1599,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -1590,7 +1607,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -1598,7 +1615,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -1606,7 +1623,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -1614,7 +1631,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -1622,7 +1639,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -1630,7 +1647,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -1646,7 +1663,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -1654,7 +1671,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -1662,7 +1679,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -1670,7 +1687,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -1678,7 +1695,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -1686,7 +1703,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -1694,7 +1711,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -1702,7 +1719,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -1710,7 +1727,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -1718,7 +1735,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -1726,7 +1743,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -1742,7 +1759,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -1750,7 +1767,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -1758,7 +1775,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -1766,7 +1783,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
@@ -1774,7 +1791,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -1782,7 +1799,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -1790,7 +1807,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -1798,7 +1815,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -1806,7 +1823,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -1814,7 +1831,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -1822,14 +1839,14 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/英雄列表.xlsx
+++ b/excels/英雄列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Dota\THDAmethyst\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A9F33-6240-489F-93B0-300D61C8809D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3FFE87-BAD6-4E11-86AB-75301F1D45A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2655" windowWidth="21600" windowHeight="11385" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29C7AE1-1213-469D-856F-83D4B90AB9D9}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1362,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
